--- a/SupplementaryTables/SupplementaryTable7.xlsx
+++ b/SupplementaryTables/SupplementaryTable7.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
   <si>
     <t>Cell_class</t>
   </si>
@@ -124,6 +124,12 @@
     <t>Gad2/Ahi1-1</t>
   </si>
   <si>
+    <t>Gad2/Ahi1-9</t>
+  </si>
+  <si>
+    <t>Gad2/Ahi1-6</t>
+  </si>
+  <si>
     <t>Gad2/Ahi1-10</t>
   </si>
   <si>
@@ -139,12 +145,6 @@
     <t>Habenula-3</t>
   </si>
   <si>
-    <t>Gad2/Ahi1-6</t>
-  </si>
-  <si>
-    <t>Gad2/Ahi1-9</t>
-  </si>
-  <si>
     <t>Gad2/Ahi1-7</t>
   </si>
   <si>
@@ -157,78 +157,75 @@
     <t>Medial_Habenula_Tac2</t>
   </si>
   <si>
+    <t>Vat1l</t>
+  </si>
+  <si>
     <t>Scn3a</t>
   </si>
   <si>
+    <t>Zcchc18</t>
+  </si>
+  <si>
+    <t>Syt10</t>
+  </si>
+  <si>
+    <t>Itm2c</t>
+  </si>
+  <si>
+    <t>Zcchc12</t>
+  </si>
+  <si>
+    <t>Syt4</t>
+  </si>
+  <si>
     <t>Mgat4c</t>
   </si>
   <si>
-    <t>Ly6h</t>
-  </si>
-  <si>
-    <t>Vat1l</t>
+    <t>Pkia</t>
+  </si>
+  <si>
+    <t>Ngb</t>
   </si>
   <si>
     <t>Cnr1</t>
   </si>
   <si>
-    <t>Itm2c</t>
-  </si>
-  <si>
-    <t>Zcchc12</t>
-  </si>
-  <si>
-    <t>Syt10</t>
-  </si>
-  <si>
-    <t>Ngb</t>
-  </si>
-  <si>
-    <t>Zcchc18</t>
-  </si>
-  <si>
-    <t>Pkia</t>
-  </si>
-  <si>
-    <t>Syt4</t>
-  </si>
-  <si>
     <t>Medial_Rora</t>
   </si>
   <si>
+    <t>Panx2</t>
+  </si>
+  <si>
+    <t>Gpr12</t>
+  </si>
+  <si>
+    <t>Gabrb1</t>
+  </si>
+  <si>
     <t>Disp2</t>
   </si>
   <si>
     <t>Reep1</t>
   </si>
   <si>
-    <t>Gpr12</t>
-  </si>
-  <si>
-    <t>Panx2</t>
-  </si>
-  <si>
-    <t>Gabrb1</t>
-  </si>
-  <si>
     <t>Medial_Gad2-Ahi1</t>
   </si>
   <si>
+    <t>Gda</t>
+  </si>
+  <si>
+    <t>Dlx1</t>
+  </si>
+  <si>
     <t>Htr2c</t>
   </si>
   <si>
-    <t>Dlx1</t>
+    <t>Gng4</t>
   </si>
   <si>
     <t>Plcxd3</t>
   </si>
   <si>
-    <t>Gng4</t>
-  </si>
-  <si>
-    <t>Gda</t>
-  </si>
-  <si>
     <t>Lateral_Habenula_Tac2</t>
   </si>
   <si>
@@ -238,121 +235,124 @@
     <t>Lateral_Rora</t>
   </si>
   <si>
+    <t>Slc24a2</t>
+  </si>
+  <si>
+    <t>Sncb</t>
+  </si>
+  <si>
+    <t>Adarb2</t>
+  </si>
+  <si>
+    <t>Rnf157</t>
+  </si>
+  <si>
+    <t>Cttnbp2</t>
+  </si>
+  <si>
+    <t>Myo5a</t>
+  </si>
+  <si>
+    <t>Paqr9</t>
+  </si>
+  <si>
+    <t>Adam11</t>
+  </si>
+  <si>
+    <t>Atp1a3</t>
+  </si>
+  <si>
+    <t>Atp2b2</t>
+  </si>
+  <si>
+    <t>Lrtm2</t>
+  </si>
+  <si>
+    <t>Adcy1</t>
+  </si>
+  <si>
+    <t>Ckmt1</t>
+  </si>
+  <si>
+    <t>Kcnc1</t>
+  </si>
+  <si>
+    <t>Gnal</t>
+  </si>
+  <si>
+    <t>Adam23</t>
+  </si>
+  <si>
+    <t>Cacng2</t>
+  </si>
+  <si>
+    <t>Rgs7bp</t>
+  </si>
+  <si>
+    <t>Grid1</t>
+  </si>
+  <si>
+    <t>Il1rapl1</t>
+  </si>
+  <si>
+    <t>Rasgrf1</t>
+  </si>
+  <si>
+    <t>Scn1b</t>
+  </si>
+  <si>
+    <t>Gabrb2</t>
+  </si>
+  <si>
+    <t>Krt222</t>
+  </si>
+  <si>
+    <t>Scn8a</t>
+  </si>
+  <si>
+    <t>Hspa12a</t>
+  </si>
+  <si>
+    <t>Cplx1</t>
+  </si>
+  <si>
+    <t>Snph</t>
+  </si>
+  <si>
+    <t>Ypel4</t>
+  </si>
+  <si>
+    <t>Zmat4</t>
+  </si>
+  <si>
+    <t>Nat8l</t>
+  </si>
+  <si>
+    <t>Tmem38a</t>
+  </si>
+  <si>
+    <t>Kcna2</t>
+  </si>
+  <si>
+    <t>Cux2</t>
+  </si>
+  <si>
+    <t>Fstl4</t>
+  </si>
+  <si>
+    <t>Grm4</t>
+  </si>
+  <si>
+    <t>Fndc5</t>
+  </si>
+  <si>
+    <t>Grm1</t>
+  </si>
+  <si>
+    <t>Gabbr2</t>
+  </si>
+  <si>
     <t>Diras1</t>
-  </si>
-  <si>
-    <t>Zmat4</t>
-  </si>
-  <si>
-    <t>Grid1</t>
-  </si>
-  <si>
-    <t>Hspa12a</t>
-  </si>
-  <si>
-    <t>Grm1</t>
-  </si>
-  <si>
-    <t>Adarb2</t>
-  </si>
-  <si>
-    <t>Adam11</t>
-  </si>
-  <si>
-    <t>Scn8a</t>
-  </si>
-  <si>
-    <t>Fndc5</t>
-  </si>
-  <si>
-    <t>Kcna2</t>
-  </si>
-  <si>
-    <t>Rnf157</t>
-  </si>
-  <si>
-    <t>Ckmt1</t>
-  </si>
-  <si>
-    <t>Fstl4</t>
-  </si>
-  <si>
-    <t>Rasgrf1</t>
-  </si>
-  <si>
-    <t>Lrtm2</t>
-  </si>
-  <si>
-    <t>Rgs7bp</t>
-  </si>
-  <si>
-    <t>Nat8l</t>
-  </si>
-  <si>
-    <t>Cttnbp2</t>
-  </si>
-  <si>
-    <t>Slc24a2</t>
-  </si>
-  <si>
-    <t>Gnal</t>
-  </si>
-  <si>
-    <t>Atp1a3</t>
-  </si>
-  <si>
-    <t>Sncb</t>
-  </si>
-  <si>
-    <t>Cacng2</t>
-  </si>
-  <si>
-    <t>Cux2</t>
-  </si>
-  <si>
-    <t>Cplx1</t>
-  </si>
-  <si>
-    <t>Il1rapl1</t>
-  </si>
-  <si>
-    <t>Paqr9</t>
-  </si>
-  <si>
-    <t>Gabbr2</t>
-  </si>
-  <si>
-    <t>Atp2b2</t>
-  </si>
-  <si>
-    <t>Krt222</t>
-  </si>
-  <si>
-    <t>Myo5a</t>
-  </si>
-  <si>
-    <t>Adcy1</t>
-  </si>
-  <si>
-    <t>Grm4</t>
-  </si>
-  <si>
-    <t>Snph</t>
-  </si>
-  <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>Scn1b</t>
-  </si>
-  <si>
-    <t>Tmem38a</t>
-  </si>
-  <si>
-    <t>Ypel4</t>
-  </si>
-  <si>
-    <t>Kcnc1</t>
   </si>
   <si>
     <t>Lateral_Gad2-Ahi1</t>
@@ -423,7 +423,7 @@
   <cols>
     <col min="1" max="1" width="21" customWidth="true"/>
     <col min="2" max="2" width="18.5703125" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.7109375" customWidth="true"/>
     <col min="4" max="4" width="18.42578125" customWidth="true"/>
     <col min="5" max="5" width="15.5703125" customWidth="true"/>
   </cols>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2042693509198195</v>
+        <v>2.0890302066772657</v>
       </c>
       <c r="C2">
-        <v>0.0079452761400844295</v>
+        <v>0.018107054698453657</v>
       </c>
       <c r="D2">
-        <v>6.4371862936860298</v>
+        <v>6.5748855325584756</v>
       </c>
       <c r="E2">
-        <v>4.3950697709066094e-27</v>
+        <v>3.4351309756340717e-28</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.43309691059128419</v>
+        <v>0.43822666896670692</v>
       </c>
       <c r="C3">
-        <v>1.8072211591608014</v>
+        <v>1.8018869873266381</v>
       </c>
       <c r="D3">
         <v>8.0290955091714107</v>
@@ -501,10 +501,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.1230878061720753</v>
+        <v>1.1363900693357192</v>
       </c>
       <c r="C5">
-        <v>1.3759867334376987</v>
+        <v>1.359762246723514</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -535,10 +535,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.19080884562225828</v>
+        <v>0.19306885544915642</v>
       </c>
       <c r="C7">
-        <v>1.7918334453798437</v>
+        <v>1.7913027939052881</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -552,10 +552,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.67130021141649043</v>
+        <v>0.67925133689839567</v>
       </c>
       <c r="C8">
-        <v>1.7501600271447171</v>
+        <v>1.7413094034507368</v>
       </c>
       <c r="D8">
         <v>2.5160299291412715</v>
@@ -569,10 +569,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.3480463944701544</v>
+        <v>3.3877018817602607</v>
       </c>
       <c r="C9">
-        <v>0.007162708764004432</v>
+        <v>0.0065936140795095841</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.8878158077725411</v>
+        <v>5.9575532538596834</v>
       </c>
       <c r="C10">
-        <v>1.4835132111959395e-11</v>
+        <v>1.1202021208138104e-11</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -609,7 +609,7 @@
   <cols>
     <col min="1" max="1" width="13" customWidth="true"/>
     <col min="2" max="2" width="18.5703125" customWidth="true"/>
-    <col min="3" max="3" width="14.5703125" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
     <col min="4" max="4" width="18.42578125" customWidth="true"/>
     <col min="5" max="5" width="15.5703125" customWidth="true"/>
   </cols>
@@ -636,10 +636,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>8.8069660763814799</v>
+        <v>8.1882352941176464</v>
       </c>
       <c r="C2">
-        <v>1.267371089905991e-08</v>
+        <v>1.1201189322004571e-07</v>
       </c>
       <c r="D2">
         <v>1.7959818902093945</v>
@@ -653,16 +653,16 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>1.3305049235281794</v>
+        <v>1.3462639109697934</v>
       </c>
       <c r="C3">
-        <v>0.35736950133525103</v>
+        <v>0.34629749432614787</v>
       </c>
       <c r="D3">
-        <v>8.409621362686643</v>
+        <v>8.6389002313869607</v>
       </c>
       <c r="E3">
-        <v>4.4019987754369889e-25</v>
+        <v>3.1082966874463196e-26</v>
       </c>
     </row>
     <row r="4">
@@ -670,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>6.2845126175160804</v>
+        <v>5.8084389939721479</v>
       </c>
       <c r="C4">
-        <v>1.1686821320190802e-06</v>
+        <v>7.4113847897571133e-06</v>
       </c>
       <c r="D4">
         <v>0.4658519578700136</v>
@@ -695,7 +695,7 @@
     <col min="2" max="2" width="18.5703125" customWidth="true"/>
     <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="18.42578125" customWidth="true"/>
-    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -720,16 +720,16 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>-0.28779069767441856</v>
+        <v>-0.29125000000000001</v>
       </c>
       <c r="C2">
-        <v>1.442178980673763</v>
+        <v>1.4403344585534577</v>
       </c>
       <c r="D2">
-        <v>4.3669907202828107</v>
+        <v>4.6902484241750093</v>
       </c>
       <c r="E2">
-        <v>0.00014159808273998763</v>
+        <v>2.6023076788515696e-05</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>-0.2572430817201507</v>
+        <v>-0.26033519553072626</v>
       </c>
       <c r="C3">
-        <v>1.4168094012652699</v>
+        <v>1.4154937948859603</v>
       </c>
       <c r="D3">
         <v>3.3088017513360377</v>
@@ -797,7 +797,7 @@
         <v>2.2770737327188941</v>
       </c>
       <c r="E6">
-        <v>0.19631787532602066</v>
+        <v>0.22903752121369078</v>
       </c>
     </row>
     <row r="7">
@@ -814,7 +814,7 @@
         <v>2.2669534050179214</v>
       </c>
       <c r="E7">
-        <v>0.11983629881433989</v>
+        <v>0.1307305077974617</v>
       </c>
     </row>
     <row r="8">
@@ -822,10 +822,10 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>-0.2558139534883721</v>
+        <v>-0.25888888888888889</v>
       </c>
       <c r="C8">
-        <v>1.3791153879585916</v>
+        <v>1.3778565273478607</v>
       </c>
       <c r="D8">
         <v>2.4856945230459662</v>
@@ -848,7 +848,7 @@
         <v>1.986232539443272</v>
       </c>
       <c r="E9">
-        <v>0.34812609403538008</v>
+        <v>0.36988397491259134</v>
       </c>
     </row>
     <row r="10">
@@ -873,16 +873,16 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>-0.43034123016735493</v>
+        <v>-0.43551401869158879</v>
       </c>
       <c r="C11">
-        <v>1.4257685933068474</v>
+        <v>1.4215643861807685</v>
       </c>
       <c r="D11">
         <v>2.0633677836934963</v>
       </c>
       <c r="E11">
-        <v>0.32952258073108892</v>
+        <v>0.35149075277982816</v>
       </c>
     </row>
     <row r="12">
@@ -890,10 +890,10 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>-0.42244506080648603</v>
+        <v>-0.42752293577981654</v>
       </c>
       <c r="C12">
-        <v>1.3901239733067368</v>
+        <v>1.3861453555432413</v>
       </c>
       <c r="D12">
         <v>1.1917395236659631</v>
@@ -924,10 +924,10 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>-0.88550983899821112</v>
+        <v>-0.89615384615384608</v>
       </c>
       <c r="C14">
-        <v>1.2231518020895487</v>
+        <v>1.2154221610443239</v>
       </c>
       <c r="D14">
         <v>0.81741108354011582</v>
@@ -941,10 +941,10 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>-2.0930232558139532</v>
+        <v>-2.1181818181818182</v>
       </c>
       <c r="C15">
-        <v>0.6047579516707362</v>
+        <v>0.59471751747805157</v>
       </c>
       <c r="D15">
         <v>0.94456391875746726</v>
@@ -958,10 +958,10 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>-2.3023255813953485</v>
+        <v>-2.3300000000000001</v>
       </c>
       <c r="C16">
-        <v>0.58283890347584322</v>
+        <v>0.57283766134524217</v>
       </c>
       <c r="D16">
         <v>1.0367164961972202</v>
@@ -975,10 +975,10 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>-3.2125473228772305</v>
+        <v>-3.2511627906976743</v>
       </c>
       <c r="C17">
-        <v>0.25376161250001711</v>
+        <v>0.28478544509783615</v>
       </c>
       <c r="D17">
         <v>0.94456391875746726</v>
@@ -992,10 +992,10 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>-3.2890365448504979</v>
+        <v>-2.9125000000000001</v>
       </c>
       <c r="C18">
-        <v>0.38315080207878327</v>
+        <v>0.46003349242868258</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>-4.1112956810631225</v>
+        <v>-3.1772727272727272</v>
       </c>
       <c r="C19">
-        <v>0.052135833003126859</v>
+        <v>0.27834846136940994</v>
       </c>
       <c r="D19">
-        <v>0.70842293906810039</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1.2756930421226795</v>
+        <v>1.1663867865027144</v>
       </c>
     </row>
     <row r="20">
@@ -1026,10 +1026,10 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>-3.7588989084005697</v>
+        <v>-3.3285714285714283</v>
       </c>
       <c r="C20">
-        <v>0.11948359329059928</v>
+        <v>0.39802542450718215</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1043,16 +1043,16 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>-3.8372093023255816</v>
+        <v>-4.1607142857142856</v>
       </c>
       <c r="C21">
-        <v>0.60420342343651967</v>
+        <v>0.04967060059727204</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.70842293906810039</v>
       </c>
       <c r="E21">
-        <v>1.1663867865027144</v>
+        <v>1.2756930421226795</v>
       </c>
     </row>
     <row r="22">
@@ -1060,16 +1060,16 @@
         <v>39</v>
       </c>
       <c r="B22">
-        <v>-4.8470012239902074</v>
+        <v>-3.8040816326530611</v>
       </c>
       <c r="C22">
-        <v>0.017271537892073384</v>
+        <v>0.1265206617176268</v>
       </c>
       <c r="D22">
-        <v>0.68557058619493594</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1.2537825347210236</v>
+        <v>1.1663867865027144</v>
       </c>
     </row>
     <row r="23">
@@ -1077,10 +1077,10 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>-4.2833964305029744</v>
+        <v>-3.8833333333333333</v>
       </c>
       <c r="C23">
-        <v>0.088096295673547487</v>
+        <v>0.5980393323375599</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1094,16 +1094,16 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <v>-4.4561140285071268</v>
+        <v>-4.905263157894737</v>
       </c>
       <c r="C24">
-        <v>0.13816531485038477</v>
+        <v>0.019514508633418495</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.68557058619493594</v>
       </c>
       <c r="E24">
-        <v>1.1663867865027144</v>
+        <v>1.2537825347210236</v>
       </c>
     </row>
     <row r="25">
@@ -1111,10 +1111,10 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>-5.0363372093023262</v>
+        <v>-4.3015384615384615</v>
       </c>
       <c r="C25">
-        <v>0.0070469336778249932</v>
+        <v>0.029988458167466387</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>43</v>
       </c>
       <c r="B26">
-        <v>-6.5780730897009958</v>
+        <v>-6.6571428571428575</v>
       </c>
       <c r="C26">
-        <v>0.0060349931108745914</v>
+        <v>0.0056644651248029549</v>
       </c>
       <c r="D26">
         <v>0.90436970944863881</v>
@@ -1145,10 +1145,10 @@
         <v>44</v>
       </c>
       <c r="B27">
-        <v>-7.0070778564206275</v>
+        <v>-7.0913043478260871</v>
       </c>
       <c r="C27">
-        <v>0.0027819164538925726</v>
+        <v>0.0025812942784460722</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1163,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="true"/>
@@ -1179,16 +1179,16 @@
         <v>45</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>112</v>
@@ -1199,19 +1199,19 @@
         <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -1219,16 +1219,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -1236,16 +1236,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -1253,13 +1253,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1267,13 +1267,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1281,13 +1281,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -1295,10 +1295,10 @@
         <v>52</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1306,10 @@
         <v>53</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -1317,10 +1317,10 @@
         <v>54</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1328,10 +1328,10 @@
         <v>55</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -1342,155 +1342,154 @@
         <v>67</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="C13" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" s="7" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" s="7" t="s">
         <v>111</v>
       </c>
     </row>
